--- a/static/course_data/medieval_trade.xlsx
+++ b/static/course_data/medieval_trade.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dirkhovy/Dropbox/homepage/hugo_version/static/course_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70CFB0A-1CB1-5643-808D-CDD1346D6803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="29500" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -223,8 +229,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,13 +293,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -331,7 +345,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -365,6 +379,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -399,9 +414,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -574,14 +590,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -606,10 +624,10 @@
         <v>66</v>
       </c>
       <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -620,10 +638,10 @@
         <v>66</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -634,10 +652,10 @@
         <v>66</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -648,10 +666,10 @@
         <v>66</v>
       </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -665,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -676,10 +694,10 @@
         <v>66</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -690,10 +708,10 @@
         <v>66</v>
       </c>
       <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -704,10 +722,10 @@
         <v>66</v>
       </c>
       <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -721,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -735,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -749,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -763,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -777,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -791,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -805,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -819,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -833,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -847,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -861,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -872,10 +890,10 @@
         <v>66</v>
       </c>
       <c r="D21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -886,10 +904,10 @@
         <v>66</v>
       </c>
       <c r="D22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -900,10 +918,10 @@
         <v>66</v>
       </c>
       <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -914,10 +932,10 @@
         <v>66</v>
       </c>
       <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -928,10 +946,10 @@
         <v>66</v>
       </c>
       <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -945,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -959,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -973,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -987,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1015,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1029,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1043,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -1057,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1071,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1085,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1099,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -1113,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -1127,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1141,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1155,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1169,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1183,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -1197,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -1211,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -1225,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -1239,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -1250,10 +1268,10 @@
         <v>66</v>
       </c>
       <c r="D48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -1267,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -1281,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -1292,10 +1310,10 @@
         <v>66</v>
       </c>
       <c r="D51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -1309,7 +1327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -1320,10 +1338,10 @@
         <v>66</v>
       </c>
       <c r="D53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -1334,10 +1352,10 @@
         <v>66</v>
       </c>
       <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -1351,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -1362,10 +1380,10 @@
         <v>66</v>
       </c>
       <c r="D56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -1376,10 +1394,10 @@
         <v>66</v>
       </c>
       <c r="D57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -1390,10 +1408,10 @@
         <v>66</v>
       </c>
       <c r="D58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>37</v>
       </c>
@@ -1407,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -1421,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -1432,10 +1450,10 @@
         <v>66</v>
       </c>
       <c r="D61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -1446,10 +1464,10 @@
         <v>66</v>
       </c>
       <c r="D62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -1460,10 +1478,10 @@
         <v>66</v>
       </c>
       <c r="D63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -1474,10 +1492,10 @@
         <v>66</v>
       </c>
       <c r="D64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -1491,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -1505,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -1516,10 +1534,10 @@
         <v>66</v>
       </c>
       <c r="D67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -1530,10 +1548,10 @@
         <v>66</v>
       </c>
       <c r="D68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -1544,10 +1562,10 @@
         <v>66</v>
       </c>
       <c r="D69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>43</v>
       </c>
@@ -1558,10 +1576,10 @@
         <v>66</v>
       </c>
       <c r="D70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>43</v>
       </c>
@@ -1572,10 +1590,10 @@
         <v>66</v>
       </c>
       <c r="D71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>44</v>
       </c>
@@ -1586,10 +1604,10 @@
         <v>66</v>
       </c>
       <c r="D72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -1600,10 +1618,10 @@
         <v>66</v>
       </c>
       <c r="D73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>45</v>
       </c>
@@ -1614,10 +1632,10 @@
         <v>66</v>
       </c>
       <c r="D74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>45</v>
       </c>
@@ -1628,10 +1646,10 @@
         <v>66</v>
       </c>
       <c r="D75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -1642,10 +1660,10 @@
         <v>66</v>
       </c>
       <c r="D76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>46</v>
       </c>
@@ -1656,10 +1674,10 @@
         <v>66</v>
       </c>
       <c r="D77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -1670,10 +1688,10 @@
         <v>66</v>
       </c>
       <c r="D78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>47</v>
       </c>
@@ -1684,10 +1702,10 @@
         <v>66</v>
       </c>
       <c r="D79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -1698,10 +1716,10 @@
         <v>66</v>
       </c>
       <c r="D80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>48</v>
       </c>
@@ -1712,10 +1730,10 @@
         <v>66</v>
       </c>
       <c r="D81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>49</v>
       </c>
@@ -1726,7 +1744,7 @@
         <v>66</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
